--- a/DatosAle1/Jornada31Ale.xlsx
+++ b/DatosAle1/Jornada31Ale.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,10 +417,10 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="D1">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="E1">
         <v>2.5</v>
@@ -434,13 +434,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="D2">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="E2">
-        <v>7.05</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="E3">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -471,10 +471,10 @@
         <v>1.24</v>
       </c>
       <c r="D4">
-        <v>5.95</v>
+        <v>5.5</v>
       </c>
       <c r="E4">
-        <v>12.35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -485,13 +485,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="D5">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="E5">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -502,13 +502,13 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>2.2000000000000002</v>
+        <v>2.15</v>
       </c>
       <c r="D6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E6">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -519,13 +519,13 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>4.6500000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D7">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="E7">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -536,13 +536,13 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D8">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="E8">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -553,13 +553,13 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="E9">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>
